--- a/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_xgb_o.xlsx
+++ b/output/ejecucion_1/gridsearch_results/base0/b0_ci_results_gs_xgb_o.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>111.6175478458404</v>
+        <v>115.6600794792175</v>
       </c>
       <c r="C2">
-        <v>0.8454004566736207</v>
+        <v>2.18330049527191</v>
       </c>
       <c r="D2">
-        <v>1.000518465042114</v>
+        <v>1.016136932373047</v>
       </c>
       <c r="E2">
-        <v>0.01274157427674034</v>
+        <v>0.0350739662501799</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.7067307692307693</v>
+        <v>0.7163461538461539</v>
       </c>
       <c r="K2">
-        <v>0.7307692307692307</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L2">
-        <v>0.7053140096618358</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="M2">
-        <v>0.7101449275362319</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="N2">
-        <v>0.7198067632850241</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="O2">
-        <v>0.7145531400966184</v>
+        <v>0.7229793756967671</v>
       </c>
       <c r="P2">
-        <v>0.009555579610253894</v>
+        <v>0.008737600188582158</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>216.0491300106049</v>
+        <v>215.6763177871704</v>
       </c>
       <c r="C3">
-        <v>1.982713753107323</v>
+        <v>2.273490666813488</v>
       </c>
       <c r="D3">
-        <v>1.096847677230835</v>
+        <v>1.159332847595215</v>
       </c>
       <c r="E3">
-        <v>0.123701061385749</v>
+        <v>0.127692494829483</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -611,28 +611,28 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="K3">
-        <v>0.7259615384615384</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="L3">
         <v>0.7053140096618358</v>
       </c>
       <c r="M3">
-        <v>0.7101449275362319</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="N3">
-        <v>0.7294685990338164</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="O3">
-        <v>0.712639353400223</v>
+        <v>0.7162439613526571</v>
       </c>
       <c r="P3">
-        <v>0.01366721176730473</v>
+        <v>0.01794646978464296</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>425.6799600601196</v>
+        <v>425.3704263687134</v>
       </c>
       <c r="C4">
-        <v>2.85595801463472</v>
+        <v>8.082496367765909</v>
       </c>
       <c r="D4">
-        <v>1.09108190536499</v>
+        <v>1.092752408981323</v>
       </c>
       <c r="E4">
-        <v>0.172520737020703</v>
+        <v>0.09912488534600736</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -664,28 +664,28 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.6971153846153846</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="K4">
-        <v>0.75</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="L4">
-        <v>0.7101449275362319</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="M4">
-        <v>0.6956521739130435</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="N4">
-        <v>0.7439613526570048</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="O4">
-        <v>0.719374767744333</v>
+        <v>0.7123745819397993</v>
       </c>
       <c r="P4">
-        <v>0.02317687016839977</v>
+        <v>0.01536323749832436</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>109.9410892486572</v>
+        <v>109.5857033729553</v>
       </c>
       <c r="C5">
-        <v>0.5153117741848613</v>
+        <v>4.095025288937153</v>
       </c>
       <c r="D5">
-        <v>1.044556427001953</v>
+        <v>1.015938186645508</v>
       </c>
       <c r="E5">
-        <v>0.1294249787052828</v>
+        <v>0.03538592988873019</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -717,28 +717,28 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.7067307692307693</v>
+        <v>0.7163461538461539</v>
       </c>
       <c r="K5">
-        <v>0.7307692307692307</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L5">
-        <v>0.7053140096618358</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="M5">
-        <v>0.7101449275362319</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="N5">
-        <v>0.7198067632850241</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="O5">
-        <v>0.7145531400966184</v>
+        <v>0.7229793756967671</v>
       </c>
       <c r="P5">
-        <v>0.009555579610253894</v>
+        <v>0.008737600188582158</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>215.771257352829</v>
+        <v>220.3319517612457</v>
       </c>
       <c r="C6">
-        <v>1.393461786798766</v>
+        <v>5.464631763524658</v>
       </c>
       <c r="D6">
-        <v>1.066860866546631</v>
+        <v>1.049535989761353</v>
       </c>
       <c r="E6">
-        <v>0.1172183825950396</v>
+        <v>0.03094786131542393</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -770,28 +770,28 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="K6">
-        <v>0.7259615384615384</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="L6">
         <v>0.7053140096618358</v>
       </c>
       <c r="M6">
-        <v>0.7101449275362319</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="N6">
-        <v>0.7294685990338164</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="O6">
-        <v>0.712639353400223</v>
+        <v>0.7162439613526571</v>
       </c>
       <c r="P6">
-        <v>0.01366721176730473</v>
+        <v>0.01794646978464296</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>429.3485007286072</v>
+        <v>433.4683054924011</v>
       </c>
       <c r="C7">
-        <v>1.7429632947042</v>
+        <v>3.766850543090891</v>
       </c>
       <c r="D7">
-        <v>1.174463272094727</v>
+        <v>1.235995388031006</v>
       </c>
       <c r="E7">
-        <v>0.1608307158956185</v>
+        <v>0.1744705059194726</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -823,28 +823,28 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.6971153846153846</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="L7">
-        <v>0.7101449275362319</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="M7">
-        <v>0.6956521739130435</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="N7">
-        <v>0.7439613526570048</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="O7">
-        <v>0.719374767744333</v>
+        <v>0.7123745819397993</v>
       </c>
       <c r="P7">
-        <v>0.02317687016839977</v>
+        <v>0.01536323749832436</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>109.9183208465576</v>
+        <v>112.9713459968567</v>
       </c>
       <c r="C8">
-        <v>1.131631101412338</v>
+        <v>2.106033517632423</v>
       </c>
       <c r="D8">
-        <v>1.012206649780274</v>
+        <v>1.106174421310425</v>
       </c>
       <c r="E8">
-        <v>0.02109794483279303</v>
+        <v>0.1214080104295941</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -876,28 +876,28 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>0.7067307692307693</v>
+        <v>0.7163461538461539</v>
       </c>
       <c r="K8">
-        <v>0.7307692307692307</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L8">
-        <v>0.7053140096618358</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="M8">
-        <v>0.7101449275362319</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="N8">
-        <v>0.7198067632850241</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="O8">
-        <v>0.7145531400966184</v>
+        <v>0.7229793756967671</v>
       </c>
       <c r="P8">
-        <v>0.009555579610253894</v>
+        <v>0.008737600188582158</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>216.6151113986969</v>
+        <v>215.6191990852356</v>
       </c>
       <c r="C9">
-        <v>0.7492700289694718</v>
+        <v>4.244646272369161</v>
       </c>
       <c r="D9">
-        <v>1.044502925872803</v>
+        <v>1.033405542373657</v>
       </c>
       <c r="E9">
-        <v>0.06542641133538199</v>
+        <v>0.04228235745490912</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -929,28 +929,28 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="K9">
-        <v>0.7259615384615384</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="L9">
         <v>0.7053140096618358</v>
       </c>
       <c r="M9">
-        <v>0.7101449275362319</v>
+        <v>0.7342995169082126</v>
       </c>
       <c r="N9">
-        <v>0.7294685990338164</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="O9">
-        <v>0.712639353400223</v>
+        <v>0.7162439613526571</v>
       </c>
       <c r="P9">
-        <v>0.01366721176730473</v>
+        <v>0.01794646978464296</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>431.5239992618561</v>
+        <v>434.9706207752228</v>
       </c>
       <c r="C10">
-        <v>3.19112669466564</v>
+        <v>6.825079965293442</v>
       </c>
       <c r="D10">
-        <v>1.036619281768799</v>
+        <v>1.032350873947144</v>
       </c>
       <c r="E10">
-        <v>0.06878467431983069</v>
+        <v>0.03609323422104604</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -982,28 +982,28 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.6971153846153846</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="L10">
-        <v>0.7101449275362319</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="M10">
-        <v>0.6956521739130435</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="N10">
-        <v>0.7439613526570048</v>
+        <v>0.7198067632850241</v>
       </c>
       <c r="O10">
-        <v>0.719374767744333</v>
+        <v>0.7123745819397993</v>
       </c>
       <c r="P10">
-        <v>0.02317687016839977</v>
+        <v>0.01536323749832436</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>175.2269519805908</v>
+        <v>174.8073581218719</v>
       </c>
       <c r="C11">
-        <v>1.096370104503759</v>
+        <v>3.77847182679238</v>
       </c>
       <c r="D11">
-        <v>1.01180534362793</v>
+        <v>1.02087574005127</v>
       </c>
       <c r="E11">
-        <v>0.05479679065736352</v>
+        <v>0.02673722361485718</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1035,28 +1035,28 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0.6826923076923077</v>
+        <v>0.7163461538461539</v>
       </c>
       <c r="K11">
-        <v>0.7355769230769231</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="L11">
         <v>0.6956521739130435</v>
       </c>
       <c r="M11">
-        <v>0.6811594202898551</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N11">
-        <v>0.7294685990338164</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="O11">
-        <v>0.7049098848011892</v>
+        <v>0.7075204384986994</v>
       </c>
       <c r="P11">
-        <v>0.02318192480941523</v>
+        <v>0.006890474138951954</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>338.1453155994415</v>
+        <v>345.0263877868653</v>
       </c>
       <c r="C12">
-        <v>1.981752813336262</v>
+        <v>1.867929330998651</v>
       </c>
       <c r="D12">
-        <v>1.082924509048462</v>
+        <v>1.064364051818848</v>
       </c>
       <c r="E12">
-        <v>0.1278154473198607</v>
+        <v>0.1135959818174943</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1091,22 +1091,22 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="K12">
-        <v>0.7355769230769231</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="L12">
+        <v>0.6811594202898551</v>
+      </c>
+      <c r="M12">
+        <v>0.7294685990338164</v>
+      </c>
+      <c r="N12">
         <v>0.6859903381642513</v>
       </c>
-      <c r="M12">
-        <v>0.6714975845410628</v>
-      </c>
-      <c r="N12">
-        <v>0.7198067632850241</v>
-      </c>
       <c r="O12">
-        <v>0.7010358602749907</v>
+        <v>0.6988480118914902</v>
       </c>
       <c r="P12">
-        <v>0.02332590921821827</v>
+        <v>0.01732288261745537</v>
       </c>
       <c r="Q12">
         <v>16</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>659.331082868576</v>
+        <v>688.5537923812866</v>
       </c>
       <c r="C13">
-        <v>2.537025303798197</v>
+        <v>7.808206120804638</v>
       </c>
       <c r="D13">
-        <v>0.991251277923584</v>
+        <v>1.084771299362183</v>
       </c>
       <c r="E13">
-        <v>0.02978594673328705</v>
+        <v>0.1121360420413808</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1144,25 +1144,25 @@
         <v>0.6971153846153846</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="L13">
-        <v>0.7053140096618358</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="M13">
-        <v>0.6714975845410628</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="N13">
-        <v>0.7198067632850241</v>
+        <v>0.6859903381642513</v>
       </c>
       <c r="O13">
-        <v>0.7087467484206614</v>
+        <v>0.6998095503530286</v>
       </c>
       <c r="P13">
-        <v>0.02591805248761708</v>
+        <v>0.009755290989617561</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>172.9961802959442</v>
+        <v>180.6572099208832</v>
       </c>
       <c r="C14">
-        <v>1.146293831902925</v>
+        <v>6.698731202764279</v>
       </c>
       <c r="D14">
-        <v>1.030276489257812</v>
+        <v>1.164846515655518</v>
       </c>
       <c r="E14">
-        <v>0.02780362605956624</v>
+        <v>0.173963129227705</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1194,28 +1194,28 @@
         <v>28</v>
       </c>
       <c r="J14">
-        <v>0.6826923076923077</v>
+        <v>0.7163461538461539</v>
       </c>
       <c r="K14">
-        <v>0.7355769230769231</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="L14">
         <v>0.6956521739130435</v>
       </c>
       <c r="M14">
-        <v>0.6811594202898551</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N14">
-        <v>0.7294685990338164</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="O14">
-        <v>0.7049098848011892</v>
+        <v>0.7075204384986994</v>
       </c>
       <c r="P14">
-        <v>0.02318192480941523</v>
+        <v>0.006890474138951954</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>338.1493563175201</v>
+        <v>348.254829788208</v>
       </c>
       <c r="C15">
-        <v>1.321567294755391</v>
+        <v>7.186271409976043</v>
       </c>
       <c r="D15">
-        <v>1.106921291351318</v>
+        <v>1.083106994628906</v>
       </c>
       <c r="E15">
-        <v>0.1396094339008258</v>
+        <v>0.1685685232608467</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1250,22 +1250,22 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="K15">
-        <v>0.7355769230769231</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="L15">
+        <v>0.6811594202898551</v>
+      </c>
+      <c r="M15">
+        <v>0.7294685990338164</v>
+      </c>
+      <c r="N15">
         <v>0.6859903381642513</v>
       </c>
-      <c r="M15">
-        <v>0.6714975845410628</v>
-      </c>
-      <c r="N15">
-        <v>0.7198067632850241</v>
-      </c>
       <c r="O15">
-        <v>0.7010358602749907</v>
+        <v>0.6988480118914902</v>
       </c>
       <c r="P15">
-        <v>0.02332590921821827</v>
+        <v>0.01732288261745537</v>
       </c>
       <c r="Q15">
         <v>16</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>667.9805058002472</v>
+        <v>667.9394392490387</v>
       </c>
       <c r="C16">
-        <v>9.114240742457314</v>
+        <v>20.63417269083224</v>
       </c>
       <c r="D16">
-        <v>1.055806398391724</v>
+        <v>1.11288537979126</v>
       </c>
       <c r="E16">
-        <v>0.1097608358814137</v>
+        <v>0.1226721119457111</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1303,25 +1303,25 @@
         <v>0.6971153846153846</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="L16">
-        <v>0.7053140096618358</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="M16">
-        <v>0.6714975845410628</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="N16">
-        <v>0.7198067632850241</v>
+        <v>0.6859903381642513</v>
       </c>
       <c r="O16">
-        <v>0.7087467484206614</v>
+        <v>0.6998095503530286</v>
       </c>
       <c r="P16">
-        <v>0.02591805248761708</v>
+        <v>0.009755290989617561</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>172.0243670463562</v>
+        <v>168.8240012645721</v>
       </c>
       <c r="C17">
-        <v>1.072511704642714</v>
+        <v>6.233028533217337</v>
       </c>
       <c r="D17">
-        <v>0.9908164978027344</v>
+        <v>0.9904697895050049</v>
       </c>
       <c r="E17">
-        <v>0.02123918451867913</v>
+        <v>0.03110312199076245</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1353,28 +1353,28 @@
         <v>31</v>
       </c>
       <c r="J17">
-        <v>0.6826923076923077</v>
+        <v>0.7163461538461539</v>
       </c>
       <c r="K17">
-        <v>0.7355769230769231</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="L17">
         <v>0.6956521739130435</v>
       </c>
       <c r="M17">
-        <v>0.6811594202898551</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="N17">
-        <v>0.7294685990338164</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="O17">
-        <v>0.7049098848011892</v>
+        <v>0.7075204384986994</v>
       </c>
       <c r="P17">
-        <v>0.02318192480941523</v>
+        <v>0.006890474138951954</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>349.6546650409699</v>
+        <v>333.343294095993</v>
       </c>
       <c r="C18">
-        <v>6.282466653261085</v>
+        <v>3.354315912821889</v>
       </c>
       <c r="D18">
-        <v>1.053198623657227</v>
+        <v>1.020987033843994</v>
       </c>
       <c r="E18">
-        <v>0.1093653405008041</v>
+        <v>0.02996891576978327</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1409,22 +1409,22 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="K18">
-        <v>0.7355769230769231</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="L18">
+        <v>0.6811594202898551</v>
+      </c>
+      <c r="M18">
+        <v>0.7294685990338164</v>
+      </c>
+      <c r="N18">
         <v>0.6859903381642513</v>
       </c>
-      <c r="M18">
-        <v>0.6714975845410628</v>
-      </c>
-      <c r="N18">
-        <v>0.7198067632850241</v>
-      </c>
       <c r="O18">
-        <v>0.7010358602749907</v>
+        <v>0.6988480118914902</v>
       </c>
       <c r="P18">
-        <v>0.02332590921821827</v>
+        <v>0.01732288261745537</v>
       </c>
       <c r="Q18">
         <v>16</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>554.0852499008179</v>
+        <v>543.2762721538544</v>
       </c>
       <c r="C19">
-        <v>26.24677211954132</v>
+        <v>26.39705784925769</v>
       </c>
       <c r="D19">
-        <v>0.6379181385040283</v>
+        <v>0.6412491798400879</v>
       </c>
       <c r="E19">
-        <v>0.1333937287353676</v>
+        <v>0.1121555016949025</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1462,25 +1462,25 @@
         <v>0.6971153846153846</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7053140096618358</v>
       </c>
       <c r="L19">
-        <v>0.7053140096618358</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="M19">
-        <v>0.6714975845410628</v>
+        <v>0.714975845410628</v>
       </c>
       <c r="N19">
-        <v>0.7198067632850241</v>
+        <v>0.6859903381642513</v>
       </c>
       <c r="O19">
-        <v>0.7087467484206614</v>
+        <v>0.6998095503530286</v>
       </c>
       <c r="P19">
-        <v>0.02591805248761708</v>
+        <v>0.009755290989617561</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
